--- a/data/trans_bre/BARTHEL_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/BARTHEL_R2-Estudios-trans_bre.xlsx
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,35</t>
+          <t>4,35</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-9,34</t>
+          <t>9,34</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-9,68</t>
+          <t>9,68</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-9,99</t>
+          <t>9,99</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-4,82%</t>
+          <t>45,13%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-11,38%</t>
+          <t>51,98%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-11,51%</t>
+          <t>60,88%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-12,6%</t>
+          <t>48,35%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,29; -0,29</t>
+          <t>-0,12; 7,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,41; -3,17</t>
+          <t>3,94; 14,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,13; -4,38</t>
+          <t>4,63; 15,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,97; -4,97</t>
+          <t>4,86; 15,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,99; -0,32</t>
+          <t>-1,32; 103,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,96; -4,0</t>
+          <t>17,59; 96,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-17,65; -5,45</t>
+          <t>24,7; 121,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-18,19; -6,7</t>
+          <t>20,62; 84,69</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-5,98</t>
+          <t>5,98</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-8,55</t>
+          <t>8,55</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-8,0</t>
+          <t>8,0</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-6,15%</t>
+          <t>215,28%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-9,18%</t>
+          <t>125,24%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-8,47%</t>
+          <t>144,74%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-0,04%</t>
+          <t>0,44%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-16,23; 0,89</t>
+          <t>-1,58; 15,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-18,11; 0,69</t>
+          <t>0,32; 18,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-14,89; -2,16</t>
+          <t>1,57; 14,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 7,11</t>
+          <t>-6,18; 5,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-16,76; 0,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-19,28; 0,66</t>
+          <t>-3,61; 527,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-15,84; -2,35</t>
+          <t>17,01; 446,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 8,05</t>
+          <t>-57,24; 66,85</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-8,97</t>
+          <t>8,97</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-11,19</t>
+          <t>11,19</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,47</t>
+          <t>-3,47</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-9,3%</t>
+          <t>254,18%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-11,62%</t>
+          <t>301,74%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>-45,94%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,83%</t>
+          <t>30,78%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-25,94; 3,41</t>
+          <t>-3,48; 29,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-32,88; 3,46</t>
+          <t>-1,96; 31,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,83; 15,6</t>
+          <t>-14,41; 9,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 4,11</t>
+          <t>-3,94; 7,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-26,99; 3,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-34,14; 3,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-9,0; 18,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 4,46</t>
+          <t>-50,82; 244,44</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-5,52</t>
+          <t>5,52</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-10,66</t>
+          <t>10,66</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-9,82</t>
+          <t>9,82</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-7,36</t>
+          <t>7,36</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-5,99%</t>
+          <t>69,49%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-12,54%</t>
+          <t>71,45%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-11,15%</t>
+          <t>82,44%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-8,49%</t>
+          <t>55,59%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,31; -2,41</t>
+          <t>1,82; 8,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-15,2; -6,01</t>
+          <t>5,99; 15,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-13,94; -5,79</t>
+          <t>5,73; 14,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,02; -0,37</t>
+          <t>0,33; 11,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,95; -2,66</t>
+          <t>16,21; 137,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,33; -7,3</t>
+          <t>33,23; 125,3</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-15,58; -6,7</t>
+          <t>41,75; 140,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-12,6; -0,3</t>
+          <t>5,14; 93,24</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/BARTHEL_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/BARTHEL_R2-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 7,96</t>
+          <t>0,17; 8,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,94; 14,11</t>
+          <t>3,57; 14,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,63; 15,76</t>
+          <t>4,46; 14,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 103,85</t>
+          <t>-1,62; 111,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,59; 96,54</t>
+          <t>15,75; 95,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>24,7; 121,72</t>
+          <t>23,24; 115,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 15,96</t>
+          <t>-0,87; 16,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,32; 18,58</t>
+          <t>0,55; 19,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,57; 14,8</t>
+          <t>2,11; 15,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,93; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 527,15</t>
+          <t>-7,51; 477,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,01; 446,16</t>
+          <t>28,44; 450,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 29,56</t>
+          <t>-3,32; 25,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 31,92</t>
+          <t>-2,77; 34,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,41; 9,34</t>
+          <t>-15,45; 9,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,82; 8,88</t>
+          <t>1,94; 9,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,99; 15,67</t>
+          <t>5,4; 15,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,73; 14,0</t>
+          <t>5,61; 13,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,21; 137,27</t>
+          <t>18,86; 139,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>33,23; 125,3</t>
+          <t>29,54; 122,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>41,75; 140,48</t>
+          <t>39,52; 136,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">

--- a/data/trans_bre/BARTHEL_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/BARTHEL_R2-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con dependencia (Barthel)</t>
+          <t>Población con dependencia funcional, al menos moderada, para actividades básicas de la vida diaria (Barthel)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,17; 8,61</t>
+          <t>0,29; 8,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,57; 14,34</t>
+          <t>3,17; 14,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,46; 14,95</t>
+          <t>4,38; 15,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,86; 15,02</t>
+          <t>4,97; 14,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 111,67</t>
+          <t>-0,53; 102,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,75; 95,43</t>
+          <t>14,69; 96,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>23,24; 115,81</t>
+          <t>21,39; 115,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,62; 84,69</t>
+          <t>20,5; 86,69</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 16,03</t>
+          <t>-0,89; 16,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,55; 19,08</t>
+          <t>-0,69; 18,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,11; 15,25</t>
+          <t>2,16; 14,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 5,28</t>
+          <t>-7,11; 4,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-52,93; —</t>
+          <t>-50,05; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 477,1</t>
+          <t>-14,65; 454,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,44; 450,48</t>
+          <t>24,58; 435,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-57,24; 66,85</t>
+          <t>-60,33; 64,02</t>
         </is>
       </c>
     </row>
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 25,68</t>
+          <t>-3,41; 25,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 34,38</t>
+          <t>-3,46; 32,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,45; 9,12</t>
+          <t>-15,6; 8,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 7,21</t>
+          <t>-4,11; 7,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-50,82; 244,44</t>
+          <t>-59,92; 244,53</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,94; 9,11</t>
+          <t>2,41; 9,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,4; 15,11</t>
+          <t>6,01; 15,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,61; 13,81</t>
+          <t>5,79; 13,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,33; 11,31</t>
+          <t>0,37; 11,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,86; 139,52</t>
+          <t>23,43; 143,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,54; 122,95</t>
+          <t>34,81; 126,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>39,52; 136,58</t>
+          <t>41,47; 135,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,14; 93,24</t>
+          <t>6,28; 88,78</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/BARTHEL_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/BARTHEL_R2-Estudios-trans_bre.xlsx
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,35</t>
+          <t>-4,35</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,34</t>
+          <t>-9,34</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,68</t>
+          <t>-9,68</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,99</t>
+          <t>-9,86</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>45,13%</t>
+          <t>-4,82%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>51,98%</t>
+          <t>-11,38%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>60,88%</t>
+          <t>-11,51%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>48,35%</t>
+          <t>-12,38%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,29; 8,29</t>
+          <t>-8,29; -0,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,17; 14,41</t>
+          <t>-14,41; -3,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,38; 15,13</t>
+          <t>-15,13; -4,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,97; 14,97</t>
+          <t>-14,75; -4,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 102,76</t>
+          <t>-8,99; -0,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,69; 96,96</t>
+          <t>-16,96; -4,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,39; 115,86</t>
+          <t>-17,65; -5,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,5; 86,69</t>
+          <t>-17,88; -6,55</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,98</t>
+          <t>-5,98</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,55</t>
+          <t>-8,55</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,0</t>
+          <t>-8,0</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>215,28%</t>
+          <t>-6,15%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>125,24%</t>
+          <t>-9,18%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>144,74%</t>
+          <t>-8,47%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>2,28%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 16,23</t>
+          <t>-16,23; 0,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 18,11</t>
+          <t>-18,11; 0,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,16; 14,89</t>
+          <t>-14,89; -2,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 4,95</t>
+          <t>-4,67; 9,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-50,05; —</t>
+          <t>-16,76; 0,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-14,65; 454,16</t>
+          <t>-19,28; 0,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>24,58; 435,24</t>
+          <t>-15,84; -2,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-60,33; 64,02</t>
+          <t>-5,07; 10,36</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,97</t>
+          <t>-8,97</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,19</t>
+          <t>-11,19</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,47</t>
+          <t>3,47</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>-1,96</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>254,18%</t>
+          <t>-9,3%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>301,74%</t>
+          <t>-11,62%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-45,94%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>30,78%</t>
+          <t>-2,08%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 25,94</t>
+          <t>-25,94; 3,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 32,88</t>
+          <t>-32,88; 3,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,6; 8,83</t>
+          <t>-8,83; 15,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 7,53</t>
+          <t>-7,72; 3,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,99; 3,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,14; 3,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,0; 18,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-59,92; 244,53</t>
+          <t>-7,87; 3,8</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,52</t>
+          <t>-5,52</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,66</t>
+          <t>-10,66</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,82</t>
+          <t>-9,82</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,36</t>
+          <t>-5,12</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>69,49%</t>
+          <t>-5,99%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>71,45%</t>
+          <t>-12,54%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>82,44%</t>
+          <t>-11,15%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>55,59%</t>
+          <t>-5,89%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,41; 9,31</t>
+          <t>-9,31; -2,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,01; 15,2</t>
+          <t>-15,2; -6,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,79; 13,94</t>
+          <t>-13,94; -5,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,37; 11,02</t>
+          <t>-10,63; 4,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,43; 143,14</t>
+          <t>-9,95; -2,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,81; 126,33</t>
+          <t>-17,33; -7,3</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>41,47; 135,47</t>
+          <t>-15,58; -6,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,28; 88,78</t>
+          <t>-12,17; 5,09</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/BARTHEL_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/BARTHEL_R2-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,29; -0,29</t>
+          <t>-8,36; -0,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,41; -3,17</t>
+          <t>-15,03; -3,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,13; -4,38</t>
+          <t>-15,56; -4,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,75; -4,97</t>
+          <t>-14,5; -4,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,99; -0,32</t>
+          <t>-8,96; -0,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,96; -4,0</t>
+          <t>-17,67; -5,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-17,65; -5,45</t>
+          <t>-18,09; -5,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-17,88; -6,55</t>
+          <t>-17,67; -6,49</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-16,23; 0,89</t>
+          <t>-16,03; 0,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-18,11; 0,69</t>
+          <t>-18,28; 0,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-14,89; -2,16</t>
+          <t>-15,08; -1,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 9,07</t>
+          <t>-4,46; 10,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-16,76; 0,74</t>
+          <t>-16,78; 0,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-19,28; 0,66</t>
+          <t>-19,24; 0,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-15,84; -2,35</t>
+          <t>-15,67; -2,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 10,36</t>
+          <t>-4,93; 12,15</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-25,94; 3,41</t>
+          <t>-28,25; 3,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-32,88; 3,46</t>
+          <t>-33,74; 3,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,83; 15,6</t>
+          <t>-8,79; 14,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 3,54</t>
+          <t>-7,89; 3,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-26,99; 3,23</t>
+          <t>-29,4; 3,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-34,14; 3,61</t>
+          <t>-35,15; 3,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-9,0; 18,82</t>
+          <t>-8,8; 17,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 3,8</t>
+          <t>-8,16; 4,23</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,31; -2,41</t>
+          <t>-9,12; -2,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-15,2; -6,01</t>
+          <t>-15,25; -5,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-13,94; -5,79</t>
+          <t>-13,93; -5,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,63; 4,41</t>
+          <t>-10,83; 3,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,95; -2,66</t>
+          <t>-9,75; -2,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,33; -7,3</t>
+          <t>-17,64; -7,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-15,58; -6,7</t>
+          <t>-15,52; -6,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-12,17; 5,09</t>
+          <t>-12,43; 3,71</t>
         </is>
       </c>
     </row>
